--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1886.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1886.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.688479595830942</v>
+        <v>1.450441837310791</v>
       </c>
       <c r="B1">
-        <v>4.400985347256652</v>
+        <v>1.934596061706543</v>
       </c>
       <c r="C1">
-        <v>3.758625153689751</v>
+        <v>3.098910570144653</v>
       </c>
       <c r="D1">
-        <v>1.072264104080507</v>
+        <v>4.300515174865723</v>
       </c>
       <c r="E1">
-        <v>0.6117395850073341</v>
+        <v>1.015467524528503</v>
       </c>
     </row>
   </sheetData>
